--- a/Baltico_VAE/Multi K-means del VAE/Five spp VAE+mkm/output best unif/all_centroidi_annotated_14_2020_five_spp_mkm_vae_sd.xlsx
+++ b/Baltico_VAE/Multi K-means del VAE/Five spp VAE+mkm/output best unif/all_centroidi_annotated_14_2020_five_spp_mkm_vae_sd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\Baltico_VAE\Multi K-means del VAE\Five spp VAE+mkm\output best unif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\BalticEcosystemRiskAssessment\Baltico_VAE\Multi K-means del VAE\Five spp VAE+mkm\output best unif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0878E8EE-685D-4006-9438-9E49DB36319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77529FC9-281E-47C5-80C2-040BAB62E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-2460" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:BO24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.19921875" defaultRowHeight="28.9" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4601,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
